--- a/storage/attendance/login.xlsx
+++ b/storage/attendance/login.xlsx
@@ -20,6 +20,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">Sheet1!$1:$4</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">Sheet1!$1:$4</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0" vbProcedure="false">Sheet1!$1:$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$1:$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -85,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">OFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WO</t>
   </si>
   <si>
     <t xml:space="preserve">Mon</t>
@@ -302,14 +300,14 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.7125506072875"/>
@@ -464,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>15</v>
@@ -516,7 +514,7 @@
         <v>42597</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>

--- a/storage/attendance/login.xlsx
+++ b/storage/attendance/login.xlsx
@@ -11,16 +11,13 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Sheet1!$1:$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Titles" vbProcedure="false">Sheet1!$1:$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Sheet1!$1:$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">Sheet1!$1:$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">Sheet1!$1:$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">Sheet1!$1:$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">Sheet1!$1:$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">Sheet1!$1:$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0" vbProcedure="false">Sheet1!$1:$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$1:$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Sheet1!$1:$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Titles" vbProcedure="false">Sheet1!$1:$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Sheet1!$1:$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">Sheet1!$1:$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">Sheet1!$1:$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">Sheet1!$1:$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">Sheet1!$1:$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -70,22 +67,49 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">18/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHAHRUKH KHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/03/2016</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sat</t>
   </si>
   <si>
-    <t xml:space="preserve">001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHAHRUKH KHAN</t>
+    <t xml:space="preserve">19/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun</t>
   </si>
   <si>
     <t xml:space="preserve">OFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/08/2016</t>
   </si>
   <si>
     <t xml:space="preserve">Mon</t>
@@ -95,14 +119,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="167" formatCode="HH:MM:SS"/>
-    <numFmt numFmtId="168" formatCode="HH:MM"/>
+    <numFmt numFmtId="165" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="HH:MM"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -124,12 +146,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,7 +205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,23 +214,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -295,21 +299,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.0323886639676"/>
@@ -358,19 +362,19 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>42581</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>0.395833333333333</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="2" t="n">
         <v>0.729166666666667</v>
       </c>
       <c r="F2" s="1" t="n">
@@ -386,29 +390,29 @@
         <v>-0.3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="K2" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="L2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>42588</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>0.385416666666667</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="2" t="n">
         <v>0.75</v>
       </c>
       <c r="F3" s="1" t="n">
@@ -424,127 +428,165 @@
         <v>0.15</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="K3" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="L3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>42595</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.763888888888889</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>42602</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>0.395138888888889</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.770833333333333</v>
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0.763888888888889</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>8.59</v>
+        <v>9.2</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="K5" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="L5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>42597</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0.763888888888889</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>0.395138888888889</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E7" s="2" t="n">
         <v>0.770833333333333</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F7" s="1" t="n">
         <v>0.29</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="n">
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>8.59</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
